--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xxs-signs\ahp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB07E31-4945-4878-B43F-DA3B927B9A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF932255-7105-48AE-B3DB-C9CB59D9F4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务范围数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>豫园万丽酒店2022年度消防维保</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1000,6 +996,10 @@
   </si>
   <si>
     <t>灭火器，火灾自动报警系统，消火栓灭火系统，自动喷水灭火系统，防烟排烟系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1371,10 +1371,10 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -1417,10 +1417,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1438,7 +1438,7 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3">
         <v>7.92</v>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4">
         <v>3.62</v>
@@ -1481,10 +1481,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5">
         <v>8.4499999999999993</v>
@@ -1513,10 +1513,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1534,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6">
         <v>52.97</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7">
         <v>12.64</v>
@@ -1577,10 +1577,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8">
         <v>18.52</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1630,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9">
         <v>12.87</v>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1662,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10">
         <v>43.87</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
       </c>
       <c r="C11">
         <v>42</v>
@@ -1694,7 +1694,7 @@
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11">
         <v>20.55</v>
@@ -1705,10 +1705,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12">
         <v>13.55</v>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
       </c>
       <c r="C13">
         <v>27</v>
@@ -1758,7 +1758,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13">
         <v>7.61</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
       </c>
       <c r="C14">
         <v>46</v>
@@ -1790,7 +1790,7 @@
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14">
         <v>20.05</v>
@@ -1801,10 +1801,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1822,7 +1822,7 @@
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15">
         <v>21.68</v>
@@ -1833,10 +1833,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
         <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
       </c>
       <c r="C16">
         <v>24</v>
@@ -1854,7 +1854,7 @@
         <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16">
         <v>75.37</v>
@@ -1865,10 +1865,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
         <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
       </c>
       <c r="C17">
         <v>93</v>
@@ -1886,7 +1886,7 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17">
         <v>11.04</v>
@@ -1897,10 +1897,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
         <v>56</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
       </c>
       <c r="C18">
         <v>11</v>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18">
         <v>58.85</v>
@@ -1929,10 +1929,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
         <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I19">
         <v>17.84</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
         <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -1982,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20">
         <v>12.1</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
         <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I21">
         <v>6.07</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
         <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22">
         <v>11.04</v>
@@ -2057,10 +2057,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
         <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23">
         <v>7.95</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2110,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I24">
         <v>3.99</v>
@@ -2121,10 +2121,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25">
         <v>7.08</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
         <v>75</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26">
         <v>4.3499999999999996</v>
@@ -2185,10 +2185,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
         <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>78</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I27">
         <v>19.100000000000001</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
         <v>80</v>
-      </c>
-      <c r="B28" t="s">
-        <v>81</v>
       </c>
       <c r="C28">
         <v>247</v>
@@ -2238,7 +2238,7 @@
         <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I28">
         <v>21.73</v>
@@ -2249,10 +2249,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
         <v>82</v>
-      </c>
-      <c r="B29" t="s">
-        <v>83</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2270,7 +2270,7 @@
         <v>9</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>3.57</v>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
         <v>85</v>
-      </c>
-      <c r="B30" t="s">
-        <v>86</v>
       </c>
       <c r="C30">
         <v>139</v>
@@ -2302,7 +2302,7 @@
         <v>9</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>9.9600000000000009</v>
@@ -2313,10 +2313,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
         <v>87</v>
-      </c>
-      <c r="B31" t="s">
-        <v>88</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I31">
         <v>4.82</v>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
         <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
       </c>
       <c r="C32">
         <v>94</v>
@@ -2366,7 +2366,7 @@
         <v>9</v>
       </c>
       <c r="H32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I32">
         <v>6.15</v>
@@ -2377,10 +2377,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
         <v>93</v>
-      </c>
-      <c r="B33" t="s">
-        <v>94</v>
       </c>
       <c r="C33">
         <v>26</v>
@@ -2398,7 +2398,7 @@
         <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I33">
         <v>20.03</v>
@@ -2409,10 +2409,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
         <v>96</v>
-      </c>
-      <c r="B34" t="s">
-        <v>97</v>
       </c>
       <c r="C34">
         <v>31</v>
@@ -2430,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I34">
         <v>26.49</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
         <v>99</v>
-      </c>
-      <c r="B35" t="s">
-        <v>100</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -2462,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I35">
         <v>12.95</v>
@@ -2473,10 +2473,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
         <v>102</v>
-      </c>
-      <c r="B36" t="s">
-        <v>103</v>
       </c>
       <c r="C36">
         <v>24</v>
@@ -2494,7 +2494,7 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I36">
         <v>24.33</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
         <v>105</v>
-      </c>
-      <c r="B37" t="s">
-        <v>106</v>
       </c>
       <c r="C37">
         <v>30</v>
@@ -2526,7 +2526,7 @@
         <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I37">
         <v>45.8</v>
@@ -2537,10 +2537,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
         <v>109</v>
-      </c>
-      <c r="B38" t="s">
-        <v>110</v>
       </c>
       <c r="C38">
         <v>35</v>
@@ -2558,7 +2558,7 @@
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I38">
         <v>22.47</v>
@@ -2569,10 +2569,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
         <v>111</v>
-      </c>
-      <c r="B39" t="s">
-        <v>112</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>8</v>
       </c>
       <c r="H39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I39">
         <v>8.68</v>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" t="s">
         <v>114</v>
-      </c>
-      <c r="B40" t="s">
-        <v>115</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2622,7 +2622,7 @@
         <v>7</v>
       </c>
       <c r="H40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I40">
         <v>27.23</v>
@@ -2633,10 +2633,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="s">
         <v>117</v>
-      </c>
-      <c r="B41" t="s">
-        <v>118</v>
       </c>
       <c r="C41">
         <v>66</v>
@@ -2654,7 +2654,7 @@
         <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I41">
         <v>13.26</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
         <v>120</v>
-      </c>
-      <c r="B42" t="s">
-        <v>121</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -2686,7 +2686,7 @@
         <v>7</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I42">
         <v>23.17</v>
@@ -2697,10 +2697,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
         <v>122</v>
-      </c>
-      <c r="B43" t="s">
-        <v>123</v>
       </c>
       <c r="C43">
         <v>34</v>
@@ -2718,7 +2718,7 @@
         <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I43">
         <v>17.850000000000001</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" t="s">
         <v>125</v>
-      </c>
-      <c r="B44" t="s">
-        <v>126</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I44">
         <v>11.56</v>
@@ -2761,10 +2761,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" t="s">
         <v>128</v>
-      </c>
-      <c r="B45" t="s">
-        <v>129</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2782,7 +2782,7 @@
         <v>9</v>
       </c>
       <c r="H45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I45">
         <v>15.39</v>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" t="s">
         <v>131</v>
-      </c>
-      <c r="B46" t="s">
-        <v>132</v>
       </c>
       <c r="C46">
         <v>21</v>
@@ -2814,7 +2814,7 @@
         <v>10</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I46">
         <v>17.71</v>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" t="s">
         <v>134</v>
-      </c>
-      <c r="B47" t="s">
-        <v>135</v>
       </c>
       <c r="C47">
         <v>88</v>
@@ -2846,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I47">
         <v>17.23</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" t="s">
         <v>137</v>
-      </c>
-      <c r="B48" t="s">
-        <v>138</v>
       </c>
       <c r="C48">
         <v>13</v>
@@ -2878,7 +2878,7 @@
         <v>6</v>
       </c>
       <c r="H48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I48">
         <v>43.57</v>
@@ -2889,10 +2889,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" t="s">
         <v>140</v>
-      </c>
-      <c r="B49" t="s">
-        <v>141</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2910,7 +2910,7 @@
         <v>9</v>
       </c>
       <c r="H49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I49">
         <v>40.92</v>
@@ -2921,10 +2921,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" t="s">
         <v>143</v>
-      </c>
-      <c r="B50" t="s">
-        <v>144</v>
       </c>
       <c r="C50">
         <v>12</v>
@@ -2942,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="H50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I50">
         <v>32.24</v>
@@ -2953,10 +2953,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" t="s">
         <v>146</v>
-      </c>
-      <c r="B51" t="s">
-        <v>147</v>
       </c>
       <c r="C51">
         <v>16</v>
@@ -2974,7 +2974,7 @@
         <v>9</v>
       </c>
       <c r="H51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I51">
         <v>9.41</v>
@@ -2985,10 +2985,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" t="s">
         <v>148</v>
-      </c>
-      <c r="B52" t="s">
-        <v>149</v>
       </c>
       <c r="C52">
         <v>50</v>
@@ -3006,7 +3006,7 @@
         <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I52">
         <v>28.58</v>
@@ -3017,10 +3017,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" t="s">
         <v>151</v>
-      </c>
-      <c r="B53" t="s">
-        <v>152</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -3038,7 +3038,7 @@
         <v>10</v>
       </c>
       <c r="H53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I53">
         <v>21.45</v>
@@ -3049,10 +3049,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" t="s">
         <v>153</v>
-      </c>
-      <c r="B54" t="s">
-        <v>154</v>
       </c>
       <c r="C54">
         <v>11</v>
@@ -3070,7 +3070,7 @@
         <v>8</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I54">
         <v>21.97</v>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" t="s">
         <v>155</v>
-      </c>
-      <c r="B55" t="s">
-        <v>156</v>
       </c>
       <c r="C55">
         <v>153</v>
@@ -3102,7 +3102,7 @@
         <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I55">
         <v>88.05</v>
@@ -3113,10 +3113,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" t="s">
         <v>158</v>
-      </c>
-      <c r="B56" t="s">
-        <v>159</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I56">
         <v>21.5</v>
@@ -3145,10 +3145,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" t="s">
         <v>160</v>
-      </c>
-      <c r="B57" t="s">
-        <v>161</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I57">
         <v>6.37</v>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" t="s">
         <v>163</v>
-      </c>
-      <c r="B58" t="s">
-        <v>164</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3198,7 +3198,7 @@
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I58">
         <v>6.98</v>
@@ -3209,10 +3209,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" t="s">
         <v>166</v>
-      </c>
-      <c r="B59" t="s">
-        <v>167</v>
       </c>
       <c r="C59">
         <v>29</v>
@@ -3230,7 +3230,7 @@
         <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I59">
         <v>9.5399999999999991</v>
@@ -3241,10 +3241,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" t="s">
         <v>168</v>
-      </c>
-      <c r="B60" t="s">
-        <v>169</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I60">
         <v>42.97</v>
@@ -3273,10 +3273,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" t="s">
         <v>171</v>
-      </c>
-      <c r="B61" t="s">
-        <v>172</v>
       </c>
       <c r="C61">
         <v>51</v>
@@ -3294,7 +3294,7 @@
         <v>8</v>
       </c>
       <c r="H61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I61">
         <v>18.37</v>
@@ -3305,10 +3305,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" t="s">
         <v>174</v>
-      </c>
-      <c r="B62" t="s">
-        <v>175</v>
       </c>
       <c r="C62">
         <v>11</v>
@@ -3326,7 +3326,7 @@
         <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I62">
         <v>15.77</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B63" s="1">
         <v>202110200005</v>
@@ -3358,7 +3358,7 @@
         <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I63">
         <v>59.93</v>
@@ -3369,10 +3369,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" t="s">
         <v>178</v>
-      </c>
-      <c r="B64" t="s">
-        <v>179</v>
       </c>
       <c r="C64">
         <v>158</v>
@@ -3390,7 +3390,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I64">
         <v>11.39</v>
@@ -3401,10 +3401,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65" t="s">
         <v>180</v>
-      </c>
-      <c r="B65" t="s">
-        <v>181</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3422,7 +3422,7 @@
         <v>8</v>
       </c>
       <c r="H65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I65">
         <v>74.34</v>
@@ -3433,10 +3433,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" t="s">
         <v>182</v>
-      </c>
-      <c r="B66" t="s">
-        <v>183</v>
       </c>
       <c r="C66">
         <v>196</v>
@@ -3454,7 +3454,7 @@
         <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I66">
         <v>17.100000000000001</v>
@@ -3465,10 +3465,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" t="s">
         <v>185</v>
-      </c>
-      <c r="B67" t="s">
-        <v>186</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I67">
         <v>0.64</v>
@@ -3497,10 +3497,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" t="s">
         <v>188</v>
-      </c>
-      <c r="B68" t="s">
-        <v>189</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I68">
         <v>36.97</v>
@@ -3529,10 +3529,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>190</v>
+      </c>
+      <c r="B69" t="s">
         <v>191</v>
-      </c>
-      <c r="B69" t="s">
-        <v>192</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3550,7 +3550,7 @@
         <v>7</v>
       </c>
       <c r="H69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I69">
         <v>34.86</v>
@@ -3561,10 +3561,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C70">
         <v>18</v>
@@ -3582,7 +3582,7 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I70">
         <v>14.89</v>
@@ -3593,10 +3593,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" t="s">
         <v>195</v>
-      </c>
-      <c r="B71" t="s">
-        <v>196</v>
       </c>
       <c r="C71">
         <v>192</v>
@@ -3614,7 +3614,7 @@
         <v>5</v>
       </c>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I71">
         <v>22.53</v>
@@ -3625,10 +3625,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" t="s">
         <v>197</v>
-      </c>
-      <c r="B72" t="s">
-        <v>198</v>
       </c>
       <c r="C72">
         <v>44</v>
@@ -3646,7 +3646,7 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I72">
         <v>7.85</v>
@@ -3657,10 +3657,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" t="s">
         <v>199</v>
-      </c>
-      <c r="B73" t="s">
-        <v>200</v>
       </c>
       <c r="C73">
         <v>338</v>
@@ -3678,7 +3678,7 @@
         <v>5</v>
       </c>
       <c r="H73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I73">
         <v>21.64</v>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" t="s">
         <v>202</v>
-      </c>
-      <c r="B74" t="s">
-        <v>203</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I74">
         <v>4.6100000000000003</v>
@@ -3721,10 +3721,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>204</v>
+      </c>
+      <c r="B75" t="s">
         <v>205</v>
-      </c>
-      <c r="B75" t="s">
-        <v>206</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I75">
         <v>1.68</v>
@@ -3753,10 +3753,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76" t="s">
         <v>208</v>
-      </c>
-      <c r="B76" t="s">
-        <v>209</v>
       </c>
       <c r="C76">
         <v>7</v>
@@ -3774,7 +3774,7 @@
         <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I76">
         <v>90.28</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" t="s">
         <v>211</v>
-      </c>
-      <c r="B77" t="s">
-        <v>212</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>9</v>
       </c>
       <c r="H77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I77">
         <v>10.119999999999999</v>
@@ -3817,10 +3817,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" t="s">
         <v>213</v>
-      </c>
-      <c r="B78" t="s">
-        <v>214</v>
       </c>
       <c r="C78">
         <v>155</v>
@@ -3838,7 +3838,7 @@
         <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I78">
         <v>56.87</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>214</v>
+      </c>
+      <c r="B79" t="s">
         <v>215</v>
-      </c>
-      <c r="B79" t="s">
-        <v>216</v>
       </c>
       <c r="C79">
         <v>99</v>
@@ -3870,7 +3870,7 @@
         <v>6</v>
       </c>
       <c r="H79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I79">
         <v>24.51</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>217</v>
+      </c>
+      <c r="B80" t="s">
         <v>218</v>
-      </c>
-      <c r="B80" t="s">
-        <v>219</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I80">
         <v>3.28</v>
@@ -3913,10 +3913,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>219</v>
+      </c>
+      <c r="B81" t="s">
         <v>220</v>
-      </c>
-      <c r="B81" t="s">
-        <v>221</v>
       </c>
       <c r="C81">
         <v>61</v>
@@ -3934,7 +3934,7 @@
         <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I81">
         <v>18.600000000000001</v>
@@ -3945,10 +3945,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>221</v>
+      </c>
+      <c r="B82" t="s">
         <v>222</v>
-      </c>
-      <c r="B82" t="s">
-        <v>223</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I82">
         <v>10.14</v>
@@ -3977,10 +3977,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>4</v>
       </c>
       <c r="H83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I83">
         <v>93.3</v>
@@ -4009,10 +4009,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>10</v>
       </c>
       <c r="H84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I84">
         <v>28.71</v>
@@ -4041,10 +4041,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>228</v>
+      </c>
+      <c r="B85" t="s">
         <v>229</v>
-      </c>
-      <c r="B85" t="s">
-        <v>230</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -4062,7 +4062,7 @@
         <v>2</v>
       </c>
       <c r="H85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I85">
         <v>7.51</v>
@@ -4073,10 +4073,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" t="s">
         <v>232</v>
-      </c>
-      <c r="B86" t="s">
-        <v>233</v>
       </c>
       <c r="C86">
         <v>43</v>
@@ -4094,7 +4094,7 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I86">
         <v>5.61</v>
@@ -4105,10 +4105,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>233</v>
+      </c>
+      <c r="B87" t="s">
         <v>234</v>
-      </c>
-      <c r="B87" t="s">
-        <v>235</v>
       </c>
       <c r="C87">
         <v>68</v>
@@ -4126,7 +4126,7 @@
         <v>4</v>
       </c>
       <c r="H87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I87">
         <v>13.96</v>
@@ -4137,10 +4137,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>235</v>
+      </c>
+      <c r="B88" t="s">
         <v>236</v>
-      </c>
-      <c r="B88" t="s">
-        <v>237</v>
       </c>
       <c r="C88">
         <v>149</v>
@@ -4158,7 +4158,7 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I88">
         <v>40.380000000000003</v>
@@ -4169,10 +4169,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>238</v>
+      </c>
+      <c r="B89" t="s">
         <v>239</v>
-      </c>
-      <c r="B89" t="s">
-        <v>240</v>
       </c>
       <c r="C89">
         <v>365</v>
@@ -4190,7 +4190,7 @@
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I89">
         <v>12.88</v>
@@ -4201,10 +4201,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>240</v>
+      </c>
+      <c r="B90" t="s">
         <v>241</v>
-      </c>
-      <c r="B90" t="s">
-        <v>242</v>
       </c>
       <c r="C90">
         <v>19</v>
@@ -4222,7 +4222,7 @@
         <v>5</v>
       </c>
       <c r="H90" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I90">
         <v>15.92</v>
